--- a/excel/new.xlsx
+++ b/excel/new.xlsx
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="D7" s="15" t="n">
-        <v>33715</v>
+        <v>33713</v>
       </c>
       <c r="E7" s="15" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="D8" s="15" t="n">
-        <v>37748</v>
+        <v>37693</v>
       </c>
       <c r="E8" s="15" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="D10" s="15" t="n">
-        <v>40394</v>
+        <v>40363</v>
       </c>
       <c r="E10" s="15" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="D11" s="15" t="n">
-        <v>47480</v>
+        <v>46982</v>
       </c>
       <c r="E11" s="15" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D13" s="15" t="n">
-        <v>42068</v>
+        <v>42037</v>
       </c>
       <c r="E13" s="15" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="D14" s="15" t="n">
-        <v>46473</v>
+        <v>46441</v>
       </c>
       <c r="E14" s="15" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D15" s="15" t="n">
-        <v>33793</v>
+        <v>33774</v>
       </c>
       <c r="E15" s="15" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="D16" s="15" t="n">
-        <v>20918</v>
+        <v>20905</v>
       </c>
       <c r="E16" s="15" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="D18" s="15" t="n">
-        <v>40656</v>
+        <v>40053</v>
       </c>
       <c r="E18" s="15" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="D19" s="15" t="n">
-        <v>32852</v>
+        <v>32846</v>
       </c>
       <c r="E19" s="15" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="D23" s="15" t="n">
-        <v>64674</v>
+        <v>64633</v>
       </c>
       <c r="E23" s="15" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="D24" s="15" t="n">
-        <v>36737</v>
+        <v>36733</v>
       </c>
       <c r="E24" s="15" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D25" s="15" t="n">
-        <v>22610</v>
+        <v>22583</v>
       </c>
       <c r="E25" s="15" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="D26" s="15" t="n">
-        <v>32178</v>
+        <v>32138</v>
       </c>
       <c r="E26" s="15" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="D27" s="15" t="n">
-        <v>9298</v>
+        <v>9296</v>
       </c>
       <c r="E27" s="15" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="D33" s="15" t="n">
-        <v>52299</v>
+        <v>51979</v>
       </c>
       <c r="E33" s="15" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="D43" s="15" t="n">
-        <v>18593</v>
+        <v>18580</v>
       </c>
       <c r="E43" s="15" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="D44" s="15" t="n">
-        <v>32894</v>
+        <v>32889</v>
       </c>
       <c r="E44" s="15" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D50" s="15" t="n">
-        <v>42475</v>
+        <v>42442</v>
       </c>
       <c r="E50" s="15" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="D52" s="15" t="n">
-        <v>34352</v>
+        <v>34323</v>
       </c>
       <c r="E52" s="15" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="D54" s="15" t="n">
-        <v>35196</v>
+        <v>35192</v>
       </c>
       <c r="E54" s="15" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D57" s="15" t="n">
-        <v>32651</v>
+        <v>32647</v>
       </c>
       <c r="E57" s="15" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="D66" s="15" t="n">
-        <v>35572</v>
+        <v>35569</v>
       </c>
       <c r="E66" s="15" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="D67" s="15" t="n">
-        <v>35394</v>
+        <v>35392</v>
       </c>
       <c r="E67" s="15" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="D68" s="15" t="n">
-        <v>15189</v>
+        <v>15181</v>
       </c>
       <c r="E68" s="15" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="D69" s="15" t="n">
-        <v>46108</v>
+        <v>46096</v>
       </c>
       <c r="E69" s="15" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="D72" s="15" t="n">
-        <v>51794</v>
+        <v>51765</v>
       </c>
       <c r="E72" s="15" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D73" s="15" t="n">
-        <v>40961</v>
+        <v>40949</v>
       </c>
       <c r="E73" s="15" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         </is>
       </c>
       <c r="D74" s="15" t="n">
-        <v>60228</v>
+        <v>60129</v>
       </c>
       <c r="E74" s="15" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         </is>
       </c>
       <c r="D76" s="15" t="n">
-        <v>41105</v>
+        <v>41102</v>
       </c>
       <c r="E76" s="15" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="D77" s="15" t="n">
-        <v>32995</v>
+        <v>32992</v>
       </c>
       <c r="E77" s="15" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="D79" s="15" t="n">
-        <v>20807</v>
+        <v>20796</v>
       </c>
       <c r="E79" s="15" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D80" s="15" t="n">
-        <v>74377</v>
+        <v>74350</v>
       </c>
       <c r="E80" s="15" t="inlineStr">
         <is>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="D82" s="15" t="n">
-        <v>35128</v>
+        <v>35098</v>
       </c>
       <c r="E82" s="15" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="D86" s="15" t="n">
-        <v>34172</v>
+        <v>34141</v>
       </c>
       <c r="E86" s="15" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         </is>
       </c>
       <c r="D87" s="15" t="n">
-        <v>48820</v>
+        <v>48752</v>
       </c>
       <c r="E87" s="15" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="D88" s="15" t="n">
-        <v>65811</v>
+        <v>65803</v>
       </c>
       <c r="E88" s="15" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="D89" s="15" t="n">
-        <v>34145</v>
+        <v>34098</v>
       </c>
       <c r="E89" s="15" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="D94" s="15" t="n">
-        <v>12487</v>
+        <v>12476</v>
       </c>
       <c r="E94" s="15" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="D100" s="15" t="n">
-        <v>23324</v>
+        <v>23315</v>
       </c>
       <c r="E100" s="15" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="D101" s="15" t="n">
-        <v>45904</v>
+        <v>45892</v>
       </c>
       <c r="E101" s="15" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="D108" s="15" t="n">
-        <v>23715</v>
+        <v>23713</v>
       </c>
       <c r="E108" s="15" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="D112" s="15" t="n">
-        <v>38746</v>
+        <v>38742</v>
       </c>
       <c r="E112" s="15" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         </is>
       </c>
       <c r="D114" s="15" t="n">
-        <v>33578</v>
+        <v>33512</v>
       </c>
       <c r="E114" s="15" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="D119" s="15" t="n">
-        <v>53918</v>
+        <v>53912</v>
       </c>
       <c r="E119" s="15" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="D122" s="15" t="n">
-        <v>78232</v>
+        <v>78181</v>
       </c>
       <c r="E122" s="15" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="D123" s="15" t="n">
-        <v>48889</v>
+        <v>48886</v>
       </c>
       <c r="E123" s="15" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         </is>
       </c>
       <c r="D129" s="15" t="n">
-        <v>40069</v>
+        <v>40062</v>
       </c>
       <c r="E129" s="15" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="D137" s="15" t="n">
-        <v>41484</v>
+        <v>41452</v>
       </c>
       <c r="E137" s="15" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="D138" s="15" t="n">
-        <v>41030</v>
+        <v>40985</v>
       </c>
       <c r="E138" s="15" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="D140" s="15" t="n">
-        <v>38856</v>
+        <v>38823</v>
       </c>
       <c r="E140" s="15" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="D141" s="15" t="n">
-        <v>33944</v>
+        <v>33942</v>
       </c>
       <c r="E141" s="15" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="D143" s="15" t="n">
-        <v>47131</v>
+        <v>47107</v>
       </c>
       <c r="E143" s="15" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="D151" s="15" t="n">
-        <v>11853</v>
+        <v>9887</v>
       </c>
       <c r="E151" s="15" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="D155" s="15" t="n">
-        <v>9930</v>
+        <v>9919</v>
       </c>
       <c r="E155" s="15" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="D165" s="15" t="n">
-        <v>34235</v>
+        <v>34231</v>
       </c>
       <c r="E165" s="15" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         </is>
       </c>
       <c r="D174" s="15" t="n">
-        <v>26829</v>
+        <v>26827</v>
       </c>
       <c r="E174" s="15" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="D175" s="15" t="n">
-        <v>34942</v>
+        <v>34940</v>
       </c>
       <c r="E175" s="15" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         </is>
       </c>
       <c r="D179" s="15" t="n">
-        <v>46385</v>
+        <v>46290</v>
       </c>
       <c r="E179" s="15" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="D183" s="15" t="n">
-        <v>46670</v>
+        <v>46640</v>
       </c>
       <c r="E183" s="15" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         </is>
       </c>
       <c r="D194" s="15" t="n">
-        <v>44746</v>
+        <v>44494</v>
       </c>
       <c r="E194" s="15" t="inlineStr">
         <is>
